--- a/BackTest/2020-01-19 BackTest DASH.xlsx
+++ b/BackTest/2020-01-19 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-543.3556786999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-537.1048786999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-527.7318786999998</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-536.1422786999998</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-519.9774786999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-518.1095786999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-510.6062786999998</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-511.6140786999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-545.3797786999997</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-545.3906786999997</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-602.5971786999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-632.5315786999997</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-630.6631786999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-625.7687786999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-703.4211786999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-701.0295786999997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-702.0195786999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-704.1057786999996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-763.9284786999997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-773.4335786999997</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-773.4335786999997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-785.7349786999996</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-806.8739786999996</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-819.5639786999997</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-819.3888786999996</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-817.4261786999996</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-813.2416786999996</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-820.6975786999997</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-831.2441786999997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-835.3477786999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-817.9977786999997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-803.4651786999997</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-804.4801786999997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-805.0069786999996</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-804.7917786999997</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-805.8450786999997</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-809.8450786999997</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-809.6450786999997</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-809.1511786999996</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-789.0947786999996</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-778.7504474199995</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-651.3606474199995</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-651.3606474199995</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-636.3606474199995</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-647.0046474199995</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-645.6046474199995</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-644.0190474199995</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-644.7784474199996</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-644.7784474199996</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-650.9784474199996</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-653.9913474199996</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-661.9692474199995</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-655.2838474199995</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-655.2676474199994</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-658.3640474199995</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-705.5522474199995</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-739.3801474199995</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-766.9286474199995</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-780.8108826399995</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-780.4971826399994</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-804.4971826399994</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-810.9092826399994</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-810.9092826399994</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-810.9492826399994</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-818.8278826399994</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-829.4136826399994</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-763.2944826399994</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-741.8787176399994</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-748.9261176399995</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-782.2841176399994</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-782.2841176399994</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-784.4870176399994</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-784.4870176399994</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -9361,10 +9361,14 @@
         <v>-1643.336050409999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>115700</v>
+      </c>
+      <c r="J272" t="n">
+        <v>115700</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9394,11 +9398,19 @@
         <v>-1643.203118169999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>115800</v>
+      </c>
+      <c r="J273" t="n">
+        <v>115700</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9439,19 @@
         <v>-1643.30568227</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>117200</v>
+      </c>
+      <c r="J274" t="n">
+        <v>115700</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10054,10 +10074,14 @@
         <v>-1668.283154979999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>116100</v>
+      </c>
+      <c r="J293" t="n">
+        <v>116100</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
@@ -10090,8 +10114,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10150,19 @@
         <v>-1680.88135498</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>115500</v>
+      </c>
+      <c r="J295" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10191,19 @@
         <v>-1680.71909555</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>115900</v>
+      </c>
+      <c r="J296" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10235,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10271,19 @@
         <v>-1679.91829555</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>116500</v>
+      </c>
+      <c r="J298" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10312,19 @@
         <v>-1680.91829555</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>115500</v>
+      </c>
+      <c r="J299" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10353,19 @@
         <v>-1689.47355738</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>115200</v>
+      </c>
+      <c r="J300" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,15 +10394,17 @@
         <v>-1717.00235738</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>115100</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>116100</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L301" t="n">
@@ -10357,12 +10435,14 @@
         <v>-1719.23807166</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>115000</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>116100</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10396,12 +10476,14 @@
         <v>-1719.47768156</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>114800</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>116100</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10435,12 +10517,14 @@
         <v>-1715.29568156</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>114500</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>116100</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10474,12 +10558,14 @@
         <v>-1715.29568156</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>115400</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>116100</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10513,12 +10599,14 @@
         <v>-1715.29568156</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>115400</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>116100</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10552,12 +10640,14 @@
         <v>-1714.633720459999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>115400</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>116100</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10591,12 +10681,14 @@
         <v>-1714.633720459999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>115800</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>116100</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10630,12 +10722,14 @@
         <v>-1714.633720459999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>115800</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>116100</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10669,12 +10763,14 @@
         <v>-1748.12953203</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>115800</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>116100</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10708,12 +10804,14 @@
         <v>-1748.05284525</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>115200</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>116100</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10747,12 +10845,14 @@
         <v>-1747.886204299999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>115900</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>116100</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10786,12 +10886,14 @@
         <v>-1747.7862043</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>116700</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>116100</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10825,12 +10927,14 @@
         <v>-1727.1937043</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>117000</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>116100</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10864,12 +10968,14 @@
         <v>-1727.4170043</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>117800</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>116100</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10903,12 +11009,14 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>117100</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>116100</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10942,10 +11050,14 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>118000</v>
+      </c>
+      <c r="J317" t="n">
+        <v>116100</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10979,10 +11091,14 @@
         <v>-1713.21490939</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>118000</v>
+      </c>
+      <c r="J318" t="n">
+        <v>116100</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11016,10 +11132,14 @@
         <v>-1724.38910939</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>118200</v>
+      </c>
+      <c r="J319" t="n">
+        <v>116100</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11056,7 +11176,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>116100</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11093,7 +11215,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>116100</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11130,7 +11254,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>116100</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11167,7 +11293,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>116100</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11204,7 +11332,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>116100</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11241,7 +11371,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>116100</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11278,7 +11410,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>116100</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11315,7 +11449,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>116100</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,7 +11488,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>116100</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11389,7 +11527,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>116100</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11423,10 +11563,14 @@
         <v>-1736.515009389999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>115600</v>
+      </c>
+      <c r="J330" t="n">
+        <v>116100</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,10 +11604,14 @@
         <v>-1736.255009389999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>115200</v>
+      </c>
+      <c r="J331" t="n">
+        <v>116100</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11497,12 +11645,14 @@
         <v>-1735.995009389999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>115300</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>116100</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11536,10 +11686,14 @@
         <v>-1736.42070939</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>116700</v>
+      </c>
+      <c r="J333" t="n">
+        <v>116100</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11573,10 +11727,14 @@
         <v>-1736.382563469999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>115600</v>
+      </c>
+      <c r="J334" t="n">
+        <v>116100</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,10 +11768,14 @@
         <v>-1739.22646347</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>116500</v>
+      </c>
+      <c r="J335" t="n">
+        <v>116100</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,10 +11809,14 @@
         <v>-1739.17874011</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>115600</v>
+      </c>
+      <c r="J336" t="n">
+        <v>116100</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11684,10 +11850,14 @@
         <v>-1739.18324011</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>116400</v>
+      </c>
+      <c r="J337" t="n">
+        <v>116100</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11721,10 +11891,14 @@
         <v>-1727.1584425</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>115600</v>
+      </c>
+      <c r="J338" t="n">
+        <v>116100</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11758,10 +11932,14 @@
         <v>-1728.9833425</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>117200</v>
+      </c>
+      <c r="J339" t="n">
+        <v>116100</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,10 +11973,14 @@
         <v>-1729.0359425</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>116800</v>
+      </c>
+      <c r="J340" t="n">
+        <v>116100</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,10 +12014,14 @@
         <v>-1729.0359425</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>116700</v>
+      </c>
+      <c r="J341" t="n">
+        <v>116100</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11869,10 +12055,14 @@
         <v>-1713.5224425</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>116700</v>
+      </c>
+      <c r="J342" t="n">
+        <v>116100</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11909,7 +12099,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>116100</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11946,7 +12138,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>116100</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11983,7 +12177,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>116100</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12020,7 +12216,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>116100</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12057,7 +12255,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>116100</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12094,7 +12294,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>116100</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12131,7 +12333,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>116100</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12168,7 +12372,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>116100</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,7 +12411,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>116100</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12242,7 +12450,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>116100</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12279,7 +12489,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>116100</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,7 +12528,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>116100</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12353,7 +12567,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>116100</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12390,7 +12606,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>116100</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12424,10 +12642,14 @@
         <v>-1583.059176719999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>118800</v>
+      </c>
+      <c r="J357" t="n">
+        <v>116100</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12464,7 +12686,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>116100</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,7 +12725,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>116100</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,7 +12764,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>116100</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,7 +12803,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>116100</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,7 +12842,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>116100</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12649,7 +12881,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>116100</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12686,7 +12920,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>116100</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12723,7 +12959,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>116100</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,7 +12998,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>116100</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12797,7 +13037,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>116100</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,7 +13076,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>116100</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,7 +13115,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>116100</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,7 +13154,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>116100</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12945,7 +13193,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>116100</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12982,7 +13232,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>116100</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13019,7 +13271,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>116100</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13056,7 +13310,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>116100</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13093,7 +13349,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>116100</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13130,7 +13388,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>116100</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13167,7 +13427,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>116100</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13204,7 +13466,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>116100</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13241,7 +13505,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>116100</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,7 +13544,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>116100</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13315,7 +13583,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>116100</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13352,7 +13622,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>116100</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13389,7 +13661,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>116100</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13426,7 +13700,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>116100</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,7 +13739,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>116100</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13500,7 +13778,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>116100</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13537,7 +13817,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>116100</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13574,7 +13856,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>116100</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13611,7 +13895,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>116100</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13648,7 +13934,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>116100</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13685,7 +13973,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>116100</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,7 +14012,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>116100</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13759,7 +14051,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>116100</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13796,7 +14090,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>116100</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13833,7 +14129,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>116100</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13870,7 +14168,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>116100</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13907,7 +14207,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>116100</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13944,7 +14246,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>116100</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13981,7 +14285,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>116100</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14018,7 +14324,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>116100</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14055,7 +14363,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>116100</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,7 +14402,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>116100</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14129,7 +14441,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>116100</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14166,7 +14480,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>116100</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14203,7 +14519,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>116100</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14240,7 +14558,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>116100</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14277,7 +14597,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>116100</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14314,7 +14636,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>116100</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14351,7 +14675,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>116100</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,7 +14714,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>116100</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14425,7 +14753,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>116100</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14462,7 +14792,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>116100</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14499,7 +14831,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>116100</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14536,7 +14870,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>116100</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14573,7 +14909,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>116100</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,7 +14948,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>116100</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14647,7 +14987,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>116100</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14684,7 +15026,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>116100</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14721,7 +15065,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>116100</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14758,7 +15104,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>116100</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14795,7 +15143,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>116100</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14832,7 +15182,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>116100</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14869,7 +15221,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>116100</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14906,7 +15260,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>116100</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14943,7 +15299,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>116100</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14980,7 +15338,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>116100</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15017,7 +15377,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>116100</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,7 +15416,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>116100</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,7 +15455,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>116100</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15128,7 +15494,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>116100</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,7 +15533,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>116100</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15202,7 +15572,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>116100</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15239,7 +15611,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>116100</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15276,7 +15650,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>116100</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15313,7 +15689,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>116100</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15350,7 +15728,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>116100</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15387,7 +15767,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>116100</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15424,7 +15806,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>116100</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,7 +15845,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>116100</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15498,7 +15884,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>116100</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,7 +15923,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>116100</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15572,7 +15962,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>116100</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15609,7 +16001,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>116100</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15646,7 +16040,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>116100</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15683,7 +16079,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>116100</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15720,7 +16118,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>116100</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15757,7 +16157,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>116100</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15794,7 +16196,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>116100</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15831,7 +16235,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>116100</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15868,7 +16274,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>116100</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15905,7 +16313,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>116100</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15942,7 +16352,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>116100</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15979,7 +16391,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>116100</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16016,7 +16430,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>116100</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16053,7 +16469,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>116100</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16090,7 +16508,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>116100</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16127,7 +16547,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>116100</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16164,7 +16586,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>116100</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16201,7 +16625,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>116100</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16238,7 +16664,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>116100</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16272,10 +16700,14 @@
         <v>-1955.48059709</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>119500</v>
+      </c>
+      <c r="J461" t="n">
+        <v>116100</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16312,7 +16744,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>116100</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16349,7 +16783,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>116100</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16386,7 +16822,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>116100</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16423,7 +16861,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>116100</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16460,7 +16900,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>116100</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16497,7 +16939,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>116100</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16534,7 +16978,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>116100</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16571,7 +17017,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>116100</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16608,7 +17056,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>116100</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16645,7 +17095,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>116100</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16682,7 +17134,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>116100</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16719,7 +17173,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>116100</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16756,7 +17212,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>116100</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16793,7 +17251,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>116100</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16830,7 +17290,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>116100</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16867,7 +17329,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>116100</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16904,7 +17368,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>116100</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16941,7 +17407,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>116100</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16978,7 +17446,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>116100</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17012,10 +17482,14 @@
         <v>-2018.41277997</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>118500</v>
+      </c>
+      <c r="J481" t="n">
+        <v>116100</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17052,7 +17526,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>116100</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17089,7 +17565,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>116100</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17126,7 +17604,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>116100</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17163,7 +17643,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>116100</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17200,7 +17682,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>116100</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17237,7 +17721,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>116100</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17274,7 +17760,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>116100</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17308,10 +17796,14 @@
         <v>-2035.546979969999</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>118300</v>
+      </c>
+      <c r="J489" t="n">
+        <v>116100</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17348,7 +17840,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>116100</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17385,7 +17879,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>116100</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17422,7 +17918,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>116100</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17459,7 +17957,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>116100</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17496,7 +17996,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>116100</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17533,7 +18035,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>116100</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17570,7 +18074,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>116100</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17607,7 +18113,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>116100</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17644,7 +18152,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>116100</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17681,7 +18191,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>116100</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17718,7 +18230,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>116100</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17755,7 +18269,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>116100</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17792,7 +18308,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>116100</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17829,7 +18347,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>116100</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17866,7 +18386,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>116100</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17903,7 +18425,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>116100</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17940,7 +18464,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>116100</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17977,7 +18503,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>116100</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18014,7 +18542,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>116100</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18051,7 +18581,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>116100</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18085,16 +18617,20 @@
         <v>-1917.758362849999</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>116100</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L510" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L510" t="n">
+        <v>1</v>
+      </c>
       <c r="M510" t="inlineStr"/>
     </row>
     <row r="511">
@@ -18120,11 +18656,17 @@
         <v>-1847.418762849999</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18156,8 +18698,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18189,8 +18737,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18219,11 +18773,17 @@
         <v>-1787.876262849999</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18252,11 +18812,17 @@
         <v>-1768.991962849999</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18288,8 +18854,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18318,11 +18890,17 @@
         <v>-1757.628362849999</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18351,11 +18929,17 @@
         <v>-1679.343362849999</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18384,11 +18968,17 @@
         <v>-1694.062062849999</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18417,11 +19007,17 @@
         <v>-1694.167062849999</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18450,11 +19046,17 @@
         <v>-1689.142062849999</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18483,11 +19085,17 @@
         <v>-1689.137062849999</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18519,8 +19127,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18552,8 +19166,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18585,8 +19205,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18618,8 +19244,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18648,11 +19280,17 @@
         <v>-1644.160062849999</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18681,11 +19319,17 @@
         <v>-1811.654486589999</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18714,11 +19358,17 @@
         <v>-1811.648486589999</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18750,8 +19400,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18780,11 +19436,17 @@
         <v>-1812.811886589998</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18816,8 +19478,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18846,11 +19514,17 @@
         <v>-1829.940086589999</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18882,8 +19556,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18915,8 +19595,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18948,8 +19634,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18981,8 +19673,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19014,8 +19712,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19047,8 +19751,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19080,8 +19790,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19113,8 +19829,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19146,8 +19868,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19179,8 +19907,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19212,8 +19946,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19245,8 +19985,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19278,8 +20024,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19311,8 +20063,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19344,8 +20102,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19377,8 +20141,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19410,8 +20180,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19443,8 +20219,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19476,8 +20258,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19509,8 +20297,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19542,8 +20336,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19575,8 +20375,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19608,8 +20414,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19641,8 +20453,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19674,8 +20492,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19707,8 +20531,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19740,8 +20570,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19773,8 +20609,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19806,8 +20648,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19839,8 +20687,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19872,8 +20726,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19905,8 +20765,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19938,8 +20804,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19971,8 +20843,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20004,8 +20882,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20037,8 +20921,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20070,14 +20960,20 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>116100</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
       <c r="M570" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest DASH.xlsx
+++ b/BackTest/2020-01-19 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-543.3556786999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-527.7318786999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-536.1422786999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-519.9774786999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-518.1095786999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-510.6062786999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-511.6140786999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-602.5971786999997</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-632.5315786999997</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-630.6631786999998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-625.7687786999998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-703.4211786999997</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-701.0295786999997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-702.0195786999997</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-704.1057786999996</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-763.9284786999997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-773.4335786999997</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-773.4335786999997</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-785.7349786999996</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-806.8739786999996</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-819.5639786999997</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-819.3888786999996</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-817.4261786999996</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-813.2416786999996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-820.6975786999997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-831.2441786999997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-835.3477786999997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-817.9977786999997</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-803.4651786999997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-804.4801786999997</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-805.0069786999996</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-804.7917786999997</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-805.8450786999997</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-809.8450786999997</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-809.6450786999997</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-809.1511786999996</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-804.3292826399994</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-763.2944826399994</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -9361,14 +9361,10 @@
         <v>-1643.336050409999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>115700</v>
-      </c>
-      <c r="J272" t="n">
-        <v>115700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9398,19 +9394,11 @@
         <v>-1643.203118169999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>115800</v>
-      </c>
-      <c r="J273" t="n">
-        <v>115700</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9439,19 +9427,11 @@
         <v>-1643.30568227</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>117200</v>
-      </c>
-      <c r="J274" t="n">
-        <v>115700</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10074,14 +10054,10 @@
         <v>-1668.283154979999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>116100</v>
-      </c>
-      <c r="J293" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
@@ -10114,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10150,19 +10120,11 @@
         <v>-1680.88135498</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>115500</v>
-      </c>
-      <c r="J295" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10191,19 +10153,11 @@
         <v>-1680.71909555</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>115900</v>
-      </c>
-      <c r="J296" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10235,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10271,19 +10219,11 @@
         <v>-1679.91829555</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>116500</v>
-      </c>
-      <c r="J298" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10317,12 +10257,10 @@
       <c r="I299" t="n">
         <v>115500</v>
       </c>
-      <c r="J299" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10358,9 +10296,7 @@
       <c r="I300" t="n">
         <v>115200</v>
       </c>
-      <c r="J300" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,9 +10335,7 @@
       <c r="I301" t="n">
         <v>115100</v>
       </c>
-      <c r="J301" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10440,9 +10374,7 @@
       <c r="I302" t="n">
         <v>115000</v>
       </c>
-      <c r="J302" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10481,9 +10413,7 @@
       <c r="I303" t="n">
         <v>114800</v>
       </c>
-      <c r="J303" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10522,9 +10452,7 @@
       <c r="I304" t="n">
         <v>114500</v>
       </c>
-      <c r="J304" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10563,9 +10491,7 @@
       <c r="I305" t="n">
         <v>115400</v>
       </c>
-      <c r="J305" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10604,9 +10530,7 @@
       <c r="I306" t="n">
         <v>115400</v>
       </c>
-      <c r="J306" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10645,9 +10569,7 @@
       <c r="I307" t="n">
         <v>115400</v>
       </c>
-      <c r="J307" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10686,9 +10608,7 @@
       <c r="I308" t="n">
         <v>115800</v>
       </c>
-      <c r="J308" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,9 +10647,7 @@
       <c r="I309" t="n">
         <v>115800</v>
       </c>
-      <c r="J309" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10768,9 +10686,7 @@
       <c r="I310" t="n">
         <v>115800</v>
       </c>
-      <c r="J310" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10809,9 +10725,7 @@
       <c r="I311" t="n">
         <v>115200</v>
       </c>
-      <c r="J311" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10850,9 +10764,7 @@
       <c r="I312" t="n">
         <v>115900</v>
       </c>
-      <c r="J312" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10891,9 +10803,7 @@
       <c r="I313" t="n">
         <v>116700</v>
       </c>
-      <c r="J313" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,9 +10842,7 @@
       <c r="I314" t="n">
         <v>117000</v>
       </c>
-      <c r="J314" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10968,14 +10876,10 @@
         <v>-1727.4170043</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>117800</v>
-      </c>
-      <c r="J315" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11009,14 +10913,10 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>117100</v>
-      </c>
-      <c r="J316" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11050,14 +10950,10 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>118000</v>
-      </c>
-      <c r="J317" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,14 +10987,10 @@
         <v>-1713.21490939</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>118000</v>
-      </c>
-      <c r="J318" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11132,14 +11024,10 @@
         <v>-1724.38910939</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>118200</v>
-      </c>
-      <c r="J319" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11176,9 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11215,9 +11101,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11254,9 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11293,9 +11175,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11332,9 +11212,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11371,9 +11249,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11410,9 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11449,9 +11323,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11488,9 +11360,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,12 +11394,12 @@
         <v>-1736.341309389999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>116100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>116600</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11568,9 +11438,7 @@
       <c r="I330" t="n">
         <v>115600</v>
       </c>
-      <c r="J330" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,9 +11477,7 @@
       <c r="I331" t="n">
         <v>115200</v>
       </c>
-      <c r="J331" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11650,9 +11516,7 @@
       <c r="I332" t="n">
         <v>115300</v>
       </c>
-      <c r="J332" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11691,9 +11555,7 @@
       <c r="I333" t="n">
         <v>116700</v>
       </c>
-      <c r="J333" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,9 +11594,7 @@
       <c r="I334" t="n">
         <v>115600</v>
       </c>
-      <c r="J334" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11773,9 +11633,7 @@
       <c r="I335" t="n">
         <v>116500</v>
       </c>
-      <c r="J335" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11814,9 +11672,7 @@
       <c r="I336" t="n">
         <v>115600</v>
       </c>
-      <c r="J336" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11855,9 +11711,7 @@
       <c r="I337" t="n">
         <v>116400</v>
       </c>
-      <c r="J337" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11896,9 +11750,7 @@
       <c r="I338" t="n">
         <v>115600</v>
       </c>
-      <c r="J338" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11937,9 +11789,7 @@
       <c r="I339" t="n">
         <v>117200</v>
       </c>
-      <c r="J339" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,9 +11828,7 @@
       <c r="I340" t="n">
         <v>116800</v>
       </c>
-      <c r="J340" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,9 +11867,7 @@
       <c r="I341" t="n">
         <v>116700</v>
       </c>
-      <c r="J341" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12060,9 +11906,7 @@
       <c r="I342" t="n">
         <v>116700</v>
       </c>
-      <c r="J342" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,12 +11940,12 @@
         <v>-1613.0448425</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>116100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>117500</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12138,9 +11982,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12177,9 +12019,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12216,9 +12056,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12255,9 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12294,9 +12130,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12333,9 +12167,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12372,9 +12204,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12411,9 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12450,9 +12278,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12489,9 +12315,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12528,9 +12352,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12567,9 +12389,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12606,9 +12426,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,14 +12460,10 @@
         <v>-1583.059176719999</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>118800</v>
-      </c>
-      <c r="J357" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12686,9 +12500,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12725,9 +12537,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12764,9 +12574,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12803,9 +12611,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12842,9 +12648,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12881,9 +12685,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12920,9 +12722,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12959,9 +12759,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12998,9 +12796,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13037,9 +12833,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13076,9 +12870,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13115,9 +12907,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13154,9 +12944,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13193,9 +12981,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13232,9 +13018,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13271,9 +13055,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13310,9 +13092,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13349,9 +13129,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13388,9 +13166,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13427,9 +13203,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13466,9 +13240,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13505,9 +13277,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13544,9 +13314,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13583,9 +13351,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13622,9 +13388,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13661,9 +13425,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13700,9 +13462,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13739,9 +13499,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13778,9 +13536,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13817,9 +13573,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13856,9 +13610,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13895,9 +13647,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13934,9 +13684,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13973,9 +13721,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14012,9 +13758,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14051,9 +13795,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14090,9 +13832,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14129,9 +13869,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14168,9 +13906,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14207,9 +13943,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14246,9 +13980,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14285,9 +14017,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14324,9 +14054,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14363,9 +14091,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14402,9 +14128,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14441,9 +14165,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14480,9 +14202,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14519,9 +14239,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14558,9 +14276,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14597,9 +14313,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14636,9 +14350,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14675,9 +14387,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14714,9 +14424,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14753,9 +14461,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,9 +14498,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14831,9 +14535,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,9 +14572,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,9 +14609,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14948,9 +14646,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14987,9 +14683,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15026,9 +14720,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15065,9 +14757,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15104,9 +14794,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15143,9 +14831,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15182,9 +14868,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15221,9 +14905,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15260,9 +14942,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15299,9 +14979,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15338,9 +15016,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15377,9 +15053,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15416,9 +15090,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15455,9 +15127,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15494,9 +15164,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15533,9 +15201,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15572,9 +15238,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15611,9 +15275,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15650,9 +15312,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15689,9 +15349,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15728,9 +15386,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15767,9 +15423,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15806,9 +15460,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15845,9 +15497,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15884,9 +15534,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15923,9 +15571,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15962,9 +15608,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16001,9 +15645,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16040,9 +15682,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16079,9 +15719,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16118,9 +15756,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16157,9 +15793,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16196,9 +15830,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16235,9 +15867,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16274,9 +15904,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16313,9 +15941,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16352,9 +15978,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16391,9 +16015,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16430,9 +16052,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16469,9 +16089,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16508,9 +16126,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16547,9 +16163,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16586,9 +16200,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16625,9 +16237,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16664,9 +16274,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16700,14 +16308,10 @@
         <v>-1955.48059709</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>119500</v>
-      </c>
-      <c r="J461" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16744,9 +16348,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,9 +16385,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16822,9 +16422,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16861,9 +16459,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16900,9 +16496,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16939,9 +16533,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16978,9 +16570,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17017,9 +16607,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17056,9 +16644,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17095,9 +16681,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17134,9 +16718,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17173,9 +16755,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17212,9 +16792,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17251,9 +16829,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17290,9 +16866,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17329,9 +16903,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17368,9 +16940,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17407,9 +16977,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17446,9 +17014,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17482,14 +17048,10 @@
         <v>-2018.41277997</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>118500</v>
-      </c>
-      <c r="J481" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17526,9 +17088,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17565,9 +17125,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,9 +17162,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17643,9 +17199,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17682,9 +17236,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17721,9 +17273,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17760,9 +17310,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17796,14 +17344,10 @@
         <v>-2035.546979969999</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>118300</v>
-      </c>
-      <c r="J489" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17840,9 +17384,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17879,9 +17421,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17918,9 +17458,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17957,9 +17495,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17996,9 +17532,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18035,9 +17569,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18074,9 +17606,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18113,9 +17643,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18152,9 +17680,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18191,9 +17717,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18230,9 +17754,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18269,9 +17791,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18308,9 +17828,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18347,9 +17865,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18386,9 +17902,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18425,9 +17939,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18464,9 +17976,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18503,9 +18013,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18542,9 +18050,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18581,9 +18087,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18620,9 +18124,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18659,9 +18161,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18698,9 +18198,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18737,9 +18235,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18776,9 +18272,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18815,9 +18309,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18854,9 +18346,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18893,9 +18383,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18932,9 +18420,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18971,9 +18457,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19010,9 +18494,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19049,9 +18531,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19088,9 +18568,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19127,9 +18605,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19166,9 +18642,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19205,9 +18679,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19244,9 +18716,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19283,9 +18753,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19322,9 +18790,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19361,9 +18827,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19400,9 +18864,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19439,9 +18901,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19478,9 +18938,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19517,9 +18975,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19556,9 +19012,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19595,9 +19049,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19634,9 +19086,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19673,9 +19123,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19712,9 +19160,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19751,9 +19197,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19790,9 +19234,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19829,9 +19271,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19865,20 +19305,16 @@
         <v>-1855.527286589999</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>116100</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="inlineStr"/>
     </row>
     <row r="543">
@@ -19904,17 +19340,11 @@
         <v>-1749.287886589999</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19946,14 +19376,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19985,14 +19409,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20024,14 +19442,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20063,14 +19475,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20102,14 +19508,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20141,14 +19541,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20177,17 +19571,11 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20216,17 +19604,11 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20255,17 +19637,11 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20294,17 +19670,11 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20336,14 +19706,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20375,14 +19739,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20411,17 +19769,11 @@
         <v>-1726.775186589998</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20450,17 +19802,11 @@
         <v>-1709.675186589998</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20489,17 +19835,11 @@
         <v>-1709.375186589999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20528,17 +19868,11 @@
         <v>-1709.355186589999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20570,14 +19904,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20609,14 +19937,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20648,14 +19970,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20687,14 +20003,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20726,14 +20036,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20765,14 +20069,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20804,14 +20102,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20843,14 +20135,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20882,14 +20168,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20921,14 +20201,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20960,20 +20234,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
       <c r="M570" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest DASH.xlsx
+++ b/BackTest/2020-01-19 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>-543.3556786999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-537.1048786999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-527.7318786999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-536.1422786999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-519.9774786999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-518.1095786999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-510.6062786999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-511.6140786999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-545.3797786999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-545.3906786999997</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-602.5971786999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-632.5315786999997</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-630.6631786999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-703.4211786999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-701.0295786999997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-702.0195786999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-704.1057786999996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-763.9284786999997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-804.3292826399994</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -10252,17 +10252,11 @@
         <v>-1680.91829555</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10291,17 +10285,11 @@
         <v>-1689.47355738</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>115200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10330,17 +10318,11 @@
         <v>-1717.00235738</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>115100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10369,17 +10351,11 @@
         <v>-1719.23807166</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>115000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10416,7 +10392,7 @@
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10876,9 +10852,11 @@
         <v>-1727.4170043</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>117800</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -10913,9 +10891,11 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>117100</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -10950,9 +10930,11 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>118000</v>
+      </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11394,11 +11376,9 @@
         <v>-1736.341309389999</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>116600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -19305,16 +19285,18 @@
         <v>-1855.527286589999</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L542" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
       <c r="M542" t="inlineStr"/>
     </row>
     <row r="543">
@@ -19340,11 +19322,15 @@
         <v>-1749.287886589999</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19377,7 +19363,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19410,7 +19400,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19443,7 +19437,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19476,7 +19474,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19509,7 +19511,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19542,7 +19548,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19571,11 +19581,15 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19604,11 +19618,15 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19637,11 +19655,15 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19670,11 +19692,15 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19707,7 +19733,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19740,7 +19770,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19769,11 +19803,15 @@
         <v>-1726.775186589998</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19802,11 +19840,15 @@
         <v>-1709.675186589998</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19835,11 +19877,15 @@
         <v>-1709.375186589999</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19868,11 +19914,15 @@
         <v>-1709.355186589999</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19905,7 +19955,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19938,7 +19992,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19971,7 +20029,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20004,7 +20066,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20037,7 +20103,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20070,7 +20140,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20103,7 +20177,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20136,7 +20214,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20169,7 +20251,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20202,7 +20288,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20235,7 +20325,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
